--- a/Autosphere/Virtual Plots/File/input.xlsx
+++ b/Autosphere/Virtual Plots/File/input.xlsx
@@ -1,126 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sudheer_Nimmagadda\Desktop\DNA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E27A21A-6D1D-44D1-9E96-41522A634C86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FC0C12B-2801-4CC7-9D43-B222C28F1F63}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
-  <si>
-    <t>Seller Mobile</t>
-  </si>
-  <si>
-    <t>Buyer Mobile</t>
-  </si>
-  <si>
-    <t>Plot No</t>
-  </si>
-  <si>
-    <t>Sqft</t>
-  </si>
-  <si>
-    <t>+917858758896</t>
-  </si>
-  <si>
-    <t>91 8528529631</t>
-  </si>
-  <si>
-    <t>856-996-8524</t>
-  </si>
-  <si>
-    <t>+91 8574879853</t>
-  </si>
-  <si>
-    <t>08957848621</t>
-  </si>
-  <si>
-    <t>+91-9632587456</t>
-  </si>
-  <si>
-    <t>+91 9853524178</t>
-  </si>
-  <si>
-    <t>91 9856893244</t>
-  </si>
-  <si>
-    <t>+91-9856893244</t>
-  </si>
-  <si>
-    <t>+91 9685787896</t>
-  </si>
-  <si>
-    <t>09587412357</t>
-  </si>
-  <si>
-    <t>+91-8698578523</t>
-  </si>
-  <si>
-    <t>+91-7858758896</t>
-  </si>
-  <si>
-    <t>09632587456</t>
-  </si>
-  <si>
-    <t>Seller Email</t>
-  </si>
-  <si>
-    <t>Buyer Email</t>
-  </si>
-  <si>
-    <t>[Seller]@gmail.com</t>
-  </si>
-  <si>
-    <t>[Buyer]@gmail.com</t>
-  </si>
-  <si>
-    <t>Transaction Number</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,24 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -456,408 +422,618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA18F0EA-8262-4AD5-887A-E2F877123BB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="17.33203125" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" bestFit="1" customWidth="1"/>
+    <col width="14.77734375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.77734375" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="23" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="7.109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="4.21875" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Seller Mobile</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Seller Email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Buyer Mobile</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Buyer Email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Plot No</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sqft</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Transaction Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>+917858758896</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>9968553222</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>34</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>96447675</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>91 8528529631</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>9898568421</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>36</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>685</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>73491896</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>856-996-8524</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>+91-9856893244</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>254</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>52451647</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>+91 8574879853</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>9856587456</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>52</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>69022275</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>8579855246</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>9853524178</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>51</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>81361780</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>8698578523</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>+91 9685787896</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>53</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>958</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>30642899</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>08957848621</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>9658745877</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>38</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>452</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>84200895</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>9574876588</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>09632587456</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>632</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>70815148</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9587412357</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>9587457488</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>36</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>100817716</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9587457488</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>09587412357</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>37</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12434805</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>+91-9632587456</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>9574876588</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>54</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>354</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>59237219</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>9658745877</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>8957848621</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>58</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>526</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>97725756</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>9685787896</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>+91-8698578523</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>64</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>547</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>53267217</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>+91 9853524178</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>8579855246</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>60</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>785</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>55031121</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>9856587456</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>8574879853</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>29</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>524</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>102893992</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>91 9856893244</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>856-996-8524</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>31</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>41844066</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>9898568421</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>8528529631</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>70</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>421</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>106852374</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>9968553222</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>[Seller]@gmail.com</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>+91-7858758896</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>[Buyer]@gmail.com</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>74</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>412</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>70561519</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>